--- a/shortlist_summary.xlsx
+++ b/shortlist_summary.xlsx
@@ -445,7 +445,7 @@
   <cols>
     <col width="4" customWidth="1" min="1" max="1"/>
     <col width="31" customWidth="1" min="2" max="2"/>
-    <col width="86" customWidth="1" min="3" max="3"/>
+    <col width="63" customWidth="1" min="3" max="3"/>
     <col width="8" customWidth="1" min="4" max="4"/>
     <col width="18" customWidth="1" min="5" max="5"/>
   </cols>
@@ -538,7 +538,7 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Candidate lacks English proficiency, 3D animation portfolio, and gamedev experience.</t>
+          <t>Lacks required IT knowledge and insufficient work experience.</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
